--- a/water-fall/10_要件定義/20_タスク管理システム_機能要件一覧_v1.0.xlsx
+++ b/water-fall/10_要件定義/20_タスク管理システム_機能要件一覧_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\10_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69A8B41-5CE1-4D49-A871-2BE08A568DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C81E23-FB95-4B66-8D47-571D95670954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{8274A964-4543-4038-856A-550D488370BD}"/>
   </bookViews>
@@ -317,7 +317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,9 +364,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -375,6 +372,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,19 +635,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -655,7 +655,7 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>45473</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -740,31 +740,31 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -772,7 +772,7 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>45473</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -784,13 +784,13 @@
       <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="1"/>
@@ -799,7 +799,7 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>45473</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -811,13 +811,13 @@
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="1"/>
@@ -828,9 +828,9 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -839,9 +839,9 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -850,9 +850,9 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -861,9 +861,9 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -872,9 +872,9 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="1"/>
     </row>
   </sheetData>

--- a/water-fall/10_要件定義/20_タスク管理システム_機能要件一覧_v1.0.xlsx
+++ b/water-fall/10_要件定義/20_タスク管理システム_機能要件一覧_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\10_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C81E23-FB95-4B66-8D47-571D95670954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2167DE-AB43-4003-BE0A-79E3F26949D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{8274A964-4543-4038-856A-550D488370BD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8274A964-4543-4038-856A-550D488370BD}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
       <t>ダイコウモク</t>
@@ -267,6 +263,10 @@
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -627,14 +627,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -651,7 +651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -659,51 +659,51 @@
         <v>45473</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -720,9 +720,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE550D8-1F93-446B-8EFA-AFDD1A126B3C}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="3.77734375" bestFit="1" customWidth="1"/>
@@ -734,41 +736,41 @@
     <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -776,26 +778,26 @@
         <v>45473</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -803,26 +805,26 @@
         <v>45473</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -833,7 +835,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -844,7 +846,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -855,7 +857,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -866,7 +868,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
